--- a/data/trans_dic/P15D$urgencias-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,33; 71,63</t>
+          <t>37,85; 70,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,02; 75,49</t>
+          <t>50,48; 75,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,04; 82,4</t>
+          <t>53,69; 82,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,74; 100,0</t>
+          <t>42,42; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 72,6</t>
+          <t>16,88; 74,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,1; 70,83</t>
+          <t>34,88; 70,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,83; 94,83</t>
+          <t>61,28; 94,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 81,4</t>
+          <t>16,93; 82,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,81; 66,47</t>
+          <t>37,61; 67,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,67; 70,75</t>
+          <t>51,08; 70,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62,25; 84,98</t>
+          <t>61,88; 84,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,47; 86,91</t>
+          <t>39,55; 86,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 63,7</t>
+          <t>28,91; 63,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 73,18</t>
+          <t>52,96; 74,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,25; 78,37</t>
+          <t>51,22; 77,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,99; 79,28</t>
+          <t>25,78; 79,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,57; 94,78</t>
+          <t>54,39; 94,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,24; 71,06</t>
+          <t>38,1; 71,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,02; 81,08</t>
+          <t>39,04; 79,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 72,44</t>
+          <t>20,9; 71,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 70,34</t>
+          <t>43,02; 71,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 69,06</t>
+          <t>51,22; 69,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,98; 74,93</t>
+          <t>53,23; 74,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,56; 70,94</t>
+          <t>33,44; 70,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 62,96</t>
+          <t>12,65; 62,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,27; 67,33</t>
+          <t>38,23; 67,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,94; 79,78</t>
+          <t>46,07; 79,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,59; 88,34</t>
+          <t>59,07; 88,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,88; 85,16</t>
+          <t>32,04; 84,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,77; 75,76</t>
+          <t>37,2; 72,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,59; 76,01</t>
+          <t>34,07; 75,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 74,55</t>
+          <t>46,21; 76,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,83; 65,96</t>
+          <t>26,11; 64,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,88; 66,43</t>
+          <t>44,43; 65,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,95; 74,81</t>
+          <t>46,66; 73,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,31; 80,2</t>
+          <t>58,3; 80,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 62,49</t>
+          <t>14,45; 60,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,98; 64,29</t>
+          <t>31,75; 65,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,66; 76,99</t>
+          <t>41,0; 77,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,22; 72,06</t>
+          <t>45,97; 72,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,67; 90,83</t>
+          <t>28,17; 90,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,74; 77,53</t>
+          <t>41,28; 78,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,67; 91,03</t>
+          <t>55,17; 91,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,08; 67,26</t>
+          <t>39,77; 66,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,97; 63,61</t>
+          <t>24,76; 64,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,09; 66,75</t>
+          <t>41,69; 65,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,16; 79,18</t>
+          <t>52,29; 79,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,62; 67,03</t>
+          <t>46,79; 67,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,32</t>
+          <t>0,0; 68,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,84; 92,16</t>
+          <t>35,06; 91,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,58; 84,6</t>
+          <t>30,28; 84,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,32; 67,48</t>
+          <t>32,45; 68,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 90,56</t>
+          <t>37,75; 90,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 79,26</t>
+          <t>49,82; 80,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,01; 83,8</t>
+          <t>49,4; 84,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,91; 73,94</t>
+          <t>51,08; 75,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 75,53</t>
+          <t>28,0; 73,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,05; 79,15</t>
+          <t>52,27; 78,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,52; 80,13</t>
+          <t>49,8; 78,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,29; 67,76</t>
+          <t>46,98; 66,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 100,0</t>
+          <t>17,92; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,46; 67,06</t>
+          <t>18,59; 66,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 64,37</t>
+          <t>8,43; 68,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,33; 61,21</t>
+          <t>23,56; 63,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,37; 81,87</t>
+          <t>20,69; 81,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,09; 60,53</t>
+          <t>18,83; 56,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,43; 70,78</t>
+          <t>33,67; 69,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,81; 61,59</t>
+          <t>35,6; 60,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,42; 82,25</t>
+          <t>34,13; 82,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,61; 54,29</t>
+          <t>25,38; 54,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,86; 63,23</t>
+          <t>31,81; 63,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,22; 55,84</t>
+          <t>35,0; 55,54</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,85; 100,0</t>
+          <t>24,24; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,48; 81,4</t>
+          <t>42,65; 81,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,19; 58,24</t>
+          <t>10,76; 57,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,22; 53,18</t>
+          <t>20,65; 52,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,71; 89,63</t>
+          <t>44,74; 85,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,71; 67,28</t>
+          <t>37,03; 65,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,23; 81,3</t>
+          <t>48,6; 82,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,65; 47,81</t>
+          <t>28,61; 47,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50,26; 84,47</t>
+          <t>46,64; 84,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>43,33; 65,21</t>
+          <t>42,09; 64,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,8; 70,78</t>
+          <t>41,21; 69,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,37; 44,6</t>
+          <t>28,83; 45,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>37,08; 55,57</t>
+          <t>36,34; 55,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,59; 64,1</t>
+          <t>52,06; 64,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,55; 67,8</t>
+          <t>53,48; 67,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50,82; 65,42</t>
+          <t>50,28; 66,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,18; 73,78</t>
+          <t>54,64; 74,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,52; 60,36</t>
+          <t>49,01; 62,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,41; 71,98</t>
+          <t>57,09; 71,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,71; 56,4</t>
+          <t>44,23; 56,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,78; 61,13</t>
+          <t>47,39; 60,8</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52,23; 61,31</t>
+          <t>52,43; 61,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57,67; 67,53</t>
+          <t>57,64; 67,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,66; 59,19</t>
+          <t>49,97; 59,18</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, acudir a urgencias</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18520</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38235</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30538</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16559</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4709</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16627</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15284</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9609</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23228</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54862</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45822</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26168</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12763; 23925</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30103; 44971</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23612; 36250</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8118; 19137</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1787; 7845</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10695; 21634</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11191; 17326</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3374; 16419</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16660; 29976</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46124; 63387</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38516; 52890</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15449; 33827</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15975</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51973</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33167</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14614</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14581</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21087</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13921</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30555</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73060</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47089</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21761</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10100; 22317</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43598; 61059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26051; 39263</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7028; 21696</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10090; 17578</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14489; 27072</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8855; 18043</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3129; 10708</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23013; 38105</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61639; 83604</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39141; 54833</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14125; 29888</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28556</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23141</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27996</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7879</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16783</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13901</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17510</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12938</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45339</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>37043</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45507</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1889; 9379</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20417; 35799</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16520; 28415</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21859; 32868</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4299; 11349</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10932; 21367</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8535; 18894</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12956; 21394</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7402; 18182</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36782; 54601</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28419; 44667</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37919; 52550</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6762</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17423</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30011</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6294</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21220</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18157</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15793</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13056</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38853</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35580</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45805</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2823; 11863</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11483; 23587</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11820; 22449</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23305; 36894</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2723; 8775</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14442; 27409</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13509; 22363</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11687; 19674</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7231; 18773</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29664; 46567</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27880; 42207</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37472; 53661</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8752</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8511</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14605</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6950</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20814</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22401</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36242</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29324</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>37005</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6398</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4530; 11818</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4236; 11866</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9390; 19787</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3726; 8970</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20805; 33495</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14997; 25694</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18076; 26877</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5388; 14095</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28578; 42807</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22083; 34859</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30217; 42955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7116</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3718</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4736</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9549</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15155</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15970</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8333</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16665</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18873</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22556</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>834; 4653</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3216; 11541</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>922; 7466</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3837; 10386</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1886; 7456</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4770; 14429</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9865; 20397</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11729; 19851</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4699; 11319</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10819; 23426</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12799; 25428</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17231; 27343</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4162</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13765</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7387</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15730</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27792</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26457</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19830</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>19892</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>41557</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>31013</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>27218</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1438; 5933</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9397; 17905</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1634; 8657</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4283; 10809</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10110; 19217</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20068; 35478</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19504; 32932</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15149; 25079</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13308; 24137</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>32080; 49513</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22795; 38544</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>21247; 33659</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>56905</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>121054</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>117758</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>123689</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>108262</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>117783</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>306580</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>244744</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>226020</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>44731; 68097</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>147737; 181822</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>106766; 134514</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>100593; 132643</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>51253; 69745</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>124644; 157938</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>108617; 136617</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>94485; 121523</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>102779; 131867</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>282136; 328442</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>224745; 262987</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>206704; 244820</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>